--- a/test.xlsx
+++ b/test.xlsx
@@ -346,6 +346,41 @@
         <v>40.0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>543.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>182.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>478.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
